--- a/data/RLIe_national.xlsx
+++ b/data/RLIe_national.xlsx
@@ -413,10 +413,10 @@
         <v>0.8215982721382289</v>
       </c>
       <c r="E2">
-        <v>0.7939416846652267</v>
+        <v>0.7943844492440605</v>
       </c>
       <c r="F2">
-        <v>0.8488120950323974</v>
+        <v>0.8479481641468682</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,7 +443,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="E3">
-        <v>0.7684665226781857</v>
+        <v>0.7697624190064795</v>
       </c>
       <c r="F3">
         <v>0.827645788336933</v>
@@ -473,10 +473,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="E4">
-        <v>0.7667278617710582</v>
+        <v>0.767170626349892</v>
       </c>
       <c r="F4">
-        <v>0.8250539956803455</v>
+        <v>0.8241900647948164</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         <v>0.7654427645788338</v>
       </c>
       <c r="F5">
-        <v>0.8237580993520518</v>
+        <v>0.8220302375809936</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>

--- a/data/RLIe_national.xlsx
+++ b/data/RLIe_national.xlsx
@@ -416,7 +416,7 @@
         <v>0.7943844492440605</v>
       </c>
       <c r="F2">
-        <v>0.8479481641468682</v>
+        <v>0.8488120950323974</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,7 +443,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="E3">
-        <v>0.7697624190064795</v>
+        <v>0.7688984881209503</v>
       </c>
       <c r="F3">
         <v>0.827645788336933</v>
@@ -473,10 +473,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="E4">
-        <v>0.767170626349892</v>
+        <v>0.7658747300215982</v>
       </c>
       <c r="F4">
-        <v>0.8241900647948164</v>
+        <v>0.8254859611231101</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -503,10 +503,10 @@
         <v>0.7943844492440605</v>
       </c>
       <c r="E5">
-        <v>0.7654427645788338</v>
+        <v>0.7658747300215982</v>
       </c>
       <c r="F5">
-        <v>0.8220302375809936</v>
+        <v>0.8237580993520518</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>

--- a/data/RLIe_national.xlsx
+++ b/data/RLIe_national.xlsx
@@ -413,10 +413,10 @@
         <v>0.8215982721382289</v>
       </c>
       <c r="E2">
-        <v>0.7943844492440605</v>
+        <v>0.7948164146868251</v>
       </c>
       <c r="F2">
-        <v>0.8488120950323974</v>
+        <v>0.8479481641468682</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -443,7 +443,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="E3">
-        <v>0.7688984881209503</v>
+        <v>0.7697624190064795</v>
       </c>
       <c r="F3">
         <v>0.827645788336933</v>
@@ -473,10 +473,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="E4">
-        <v>0.7658747300215982</v>
+        <v>0.7680345572354211</v>
       </c>
       <c r="F4">
-        <v>0.8254859611231101</v>
+        <v>0.824622030237581</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         <v>0.7658747300215982</v>
       </c>
       <c r="F5">
-        <v>0.8237580993520518</v>
+        <v>0.8215982721382289</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
